--- a/Blatt6WR2.xlsx
+++ b/Blatt6WR2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DFBBEC-EA49-47DB-8627-48D66618837C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10313329-E07E-4A08-8921-8CA200BC1DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{423F96B5-0A65-4584-863A-2DDFA070FA5E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>Energie</t>
   </si>
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -124,15 +130,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -447,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BF8967-1435-4FC1-A97C-2FECBBA0A43A}">
-  <dimension ref="C2:R22"/>
+  <dimension ref="C2:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:M22"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -871,6 +1006,256 @@
         <v>8.6630400000000005</v>
       </c>
     </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14">
+        <f>E27/2</f>
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14">
+        <f>H27/2</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="L27" s="15"/>
+    </row>
+    <row r="28" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="4">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>6.0871899999999997</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7.1617299999999995E-2</v>
+      </c>
+      <c r="F29" s="5">
+        <v>3.39785</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6.0871899999999997</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7.1599800000000005E-2</v>
+      </c>
+      <c r="I29" s="6">
+        <v>3.3978700000000002</v>
+      </c>
+      <c r="J29" s="4">
+        <v>6.0871899999999997</v>
+      </c>
+      <c r="K29" s="5">
+        <v>7.1595699999999998E-2</v>
+      </c>
+      <c r="L29" s="6">
+        <v>3.3978700000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C30" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4">
+        <v>9.3799799999999998</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.187914</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4.1808199999999998</v>
+      </c>
+      <c r="G30" s="4">
+        <v>9.3799799999999998</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.187831</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4.1808699999999996</v>
+      </c>
+      <c r="J30" s="4">
+        <v>9.3799799999999998</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.18781</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4.1808899999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9.3806399999999996</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.41372599999999998</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4.0403599999999997</v>
+      </c>
+      <c r="G31" s="7">
+        <v>9.3806399999999996</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.41341</v>
+      </c>
+      <c r="I31" s="9">
+        <v>4.04054</v>
+      </c>
+      <c r="J31" s="7">
+        <v>9.3806399999999996</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.413329</v>
+      </c>
+      <c r="L31" s="9">
+        <v>4.0405899999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="36" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14">
+        <f>0.00625/4</f>
+        <v>1.5625000000000001E-3</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14">
+        <f>E36/2</f>
+        <v>7.8125000000000004E-4</v>
+      </c>
+      <c r="I36" s="15"/>
+    </row>
+    <row r="37" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="4">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8.2302599999999995</v>
+      </c>
+      <c r="E38" s="5">
+        <v>6.6616900000000001</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1.46773</v>
+      </c>
+      <c r="G38" s="5">
+        <v>8.2302800000000005</v>
+      </c>
+      <c r="H38" s="5">
+        <v>6.6606199999999998</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.4798199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="7">
+        <v>5</v>
+      </c>
+      <c r="D39" s="7">
+        <v>9.3479100000000006</v>
+      </c>
+      <c r="E39" s="8">
+        <v>9.0879899999999996</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.230155</v>
+      </c>
+      <c r="G39" s="8">
+        <v>9.3479100000000006</v>
+      </c>
+      <c r="H39" s="8">
+        <v>9.0877300000000005</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.21074000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Blatt6WR2.xlsx
+++ b/Blatt6WR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10313329-E07E-4A08-8921-8CA200BC1DB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B8650-5D71-42F3-8156-4FEF273806EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{423F96B5-0A65-4584-863A-2DDFA070FA5E}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>Energie</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>Finite Volumen</t>
+  </si>
+  <si>
+    <t>Level6dt0,00625</t>
+  </si>
+  <si>
+    <t>Outflowsum</t>
+  </si>
+  <si>
+    <t>Inflowsum</t>
   </si>
 </sst>
 </file>
@@ -582,20 +591,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BF8967-1435-4FC1-A97C-2FECBBA0A43A}">
-  <dimension ref="C2:R39"/>
+  <dimension ref="C2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -606,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>4</v>
       </c>
@@ -614,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -654,7 +663,7 @@
       </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C8">
         <v>4</v>
       </c>
@@ -751,7 +760,7 @@
         <v>5.4005900000000002</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>5</v>
       </c>
@@ -801,7 +810,7 @@
         <v>7.1165599999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>6</v>
       </c>
@@ -851,12 +860,58 @@
         <v>8.2048299999999994</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" t="s">
+        <v>15</v>
+      </c>
+      <c r="T13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.4">
+      <c r="M14">
+        <f xml:space="preserve"> 0.000718355 + 0.0192798 + 0.028222 + 0.0177768 + 0.15122 + 0.431961 + 0.378293 + 0.245203 + 0.580918 + 1.01656 + 0.877561 + 0.650561 + 0.963026 + 1.34396 + 1.21165</f>
+        <v>7.9169099549999995</v>
+      </c>
+      <c r="N14">
+        <f xml:space="preserve"> -0.449224 - 0.295562 - 0.279816 - 0.400007 - 0.360189 - 0.170411 - 0.129042 - 0.228469 - 0.190835 - 0.0503302</f>
+        <v>-2.5538851999999999</v>
+      </c>
+      <c r="S14">
+        <f xml:space="preserve"> 0.0000391647 + 0.00161711 + 0.00358419 + 0.00162272 + 0.00780155 + 0.0296841 + 0.0344371 +0.0198644 + 0.0321201 + 0.065863 + 0.0685773 + 0.0482113 + 0.0572738 + 0.0861691 + 0.0877378</f>
+        <v>0.54460273469999998</v>
+      </c>
+      <c r="T14">
+        <f xml:space="preserve"> 0.0505711 + 0.0342529 + 0.0280206 + 0.0406952 + 0.0215048 + 0.0124198 + 0.0226028 + 0.0230827 + 0.00745547 + 0.00132828 + 0.00309811 + 0.00275971 + 0.000240185 + 0.000000479419</f>
+        <v>0.24803213441899999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="M15">
+        <f>H10+M14+N14-G10</f>
+        <v>4.9043347550000007</v>
+      </c>
+      <c r="S15">
+        <f>S14-T14</f>
+        <v>0.29657060028100002</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
         <v>7</v>
       </c>
@@ -867,15 +922,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="S17">
+        <f>M10+S15</f>
+        <v>8.5014106002810017</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -904,7 +963,7 @@
       </c>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.4">
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
@@ -936,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>4</v>
       </c>
@@ -971,7 +1030,7 @@
         <v>8.6781199999999998</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>5</v>
       </c>
@@ -1006,7 +1065,7 @@
         <v>8.6630400000000005</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1096,7 @@
       </c>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="s">
         <v>1</v>
@@ -1067,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:19" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C29" s="4">
         <v>4</v>
       </c>
@@ -1099,7 +1158,7 @@
         <v>3.3978700000000002</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C30" s="4">
         <v>5</v>
       </c>
@@ -1131,7 +1190,7 @@
         <v>4.1808899999999998</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:19" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C31" s="7">
         <v>6</v>
       </c>

--- a/Blatt6WR2.xlsx
+++ b/Blatt6WR2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karch\Desktop\WissRechnen\HIERISTDERRICHTIGEWRORDNER\WR_Bericht2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B8650-5D71-42F3-8156-4FEF273806EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CF4D53-72D5-4439-A3E7-E0E018A03AB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{423F96B5-0A65-4584-863A-2DDFA070FA5E}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BF8967-1435-4FC1-A97C-2FECBBA0A43A}">
   <dimension ref="C2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
